--- a/output/riclpm_democracy_inequality_controls.xlsx
+++ b/output/riclpm_democracy_inequality_controls.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="ACEPTACION DESIGUALDAD" sheetId="1" r:id="rId1"/>
-    <sheet name="JUST DIST PENSIONES" sheetId="2" r:id="rId2"/>
-    <sheet name="JUST DIST EDUC" sheetId="3" r:id="rId3"/>
-    <sheet name="JUST DIST SALUD" sheetId="4" r:id="rId4"/>
+    <sheet name="HAY GRUPOS INFERIORES" sheetId="2" r:id="rId2"/>
+    <sheet name="JUST DIST PENSIONES" sheetId="3" r:id="rId3"/>
+    <sheet name="JUST DIST EDUC" sheetId="4" r:id="rId4"/>
+    <sheet name="JUST DIST SALUD" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6813,6 +6814,3345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>vary</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>varx</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>lhs</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>op</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rhs</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>est</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>z</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>pvalue</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>std.all</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CFI</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>RMSEA</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F2">
+        <v>-0.1160418824978542</v>
+      </c>
+      <c r="G2">
+        <v>0.01316330712519339</v>
+      </c>
+      <c r="H2">
+        <v>-8.815556865323037</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>-0.2525842717270176</v>
+      </c>
+      <c r="K2">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L2">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F3">
+        <v>0.06367199312654363</v>
+      </c>
+      <c r="G3">
+        <v>0.008364201522332956</v>
+      </c>
+      <c r="H3">
+        <v>7.612441301962335</v>
+      </c>
+      <c r="I3">
+        <v>2.686739719592879E-14</v>
+      </c>
+      <c r="J3">
+        <v>0.1956478254588345</v>
+      </c>
+      <c r="K3">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L3">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F4">
+        <v>0.06125666737113048</v>
+      </c>
+      <c r="G4">
+        <v>0.008395594310908661</v>
+      </c>
+      <c r="H4">
+        <v>7.296287207629573</v>
+      </c>
+      <c r="I4">
+        <v>2.957634137601417E-13</v>
+      </c>
+      <c r="J4">
+        <v>0.1976921030964627</v>
+      </c>
+      <c r="K4">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L4">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F5">
+        <v>-0.008143524244198386</v>
+      </c>
+      <c r="G5">
+        <v>0.001204119033066961</v>
+      </c>
+      <c r="H5">
+        <v>-6.763055828007602</v>
+      </c>
+      <c r="I5">
+        <v>1.351119216508323E-11</v>
+      </c>
+      <c r="J5">
+        <v>-0.1825430317705435</v>
+      </c>
+      <c r="K5">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L5">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F6">
+        <v>-0.07111647216255067</v>
+      </c>
+      <c r="G6">
+        <v>0.01171780837209073</v>
+      </c>
+      <c r="H6">
+        <v>-6.069093289828378</v>
+      </c>
+      <c r="I6">
+        <v>1.286344142314988E-09</v>
+      </c>
+      <c r="J6">
+        <v>-0.1478152525498984</v>
+      </c>
+      <c r="K6">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L6">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F7">
+        <v>0.06102627148438558</v>
+      </c>
+      <c r="G7">
+        <v>0.01006226842508477</v>
+      </c>
+      <c r="H7">
+        <v>6.064862206642184</v>
+      </c>
+      <c r="I7">
+        <v>1.320668241433509E-09</v>
+      </c>
+      <c r="J7">
+        <v>0.1932880306444958</v>
+      </c>
+      <c r="K7">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L7">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F8">
+        <v>0.1296664443909126</v>
+      </c>
+      <c r="G8">
+        <v>0.02948553258496208</v>
+      </c>
+      <c r="H8">
+        <v>4.397629380350545</v>
+      </c>
+      <c r="I8">
+        <v>1.09439648385834E-05</v>
+      </c>
+      <c r="J8">
+        <v>0.128236015591075</v>
+      </c>
+      <c r="K8">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L8">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F9">
+        <v>-0.05030162327571433</v>
+      </c>
+      <c r="G9">
+        <v>0.01252597525597923</v>
+      </c>
+      <c r="H9">
+        <v>-4.015784978634941</v>
+      </c>
+      <c r="I9">
+        <v>5.92482565151542E-05</v>
+      </c>
+      <c r="J9">
+        <v>-0.1033983143855863</v>
+      </c>
+      <c r="K9">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L9">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F10">
+        <v>-0.004442669684379262</v>
+      </c>
+      <c r="G10">
+        <v>0.001185268864287607</v>
+      </c>
+      <c r="H10">
+        <v>-3.748237904696401</v>
+      </c>
+      <c r="I10">
+        <v>0.0001780812987144387</v>
+      </c>
+      <c r="J10">
+        <v>-0.09481728475167356</v>
+      </c>
+      <c r="K10">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L10">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F11">
+        <v>0.09930983372673649</v>
+      </c>
+      <c r="G11">
+        <v>0.02984082950172618</v>
+      </c>
+      <c r="H11">
+        <v>3.327985025382481</v>
+      </c>
+      <c r="I11">
+        <v>0.000874765683711809</v>
+      </c>
+      <c r="J11">
+        <v>0.1159072601659635</v>
+      </c>
+      <c r="K11">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L11">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F12">
+        <v>-0.003399746153348465</v>
+      </c>
+      <c r="G12">
+        <v>0.001390819350756484</v>
+      </c>
+      <c r="H12">
+        <v>-2.444419651983775</v>
+      </c>
+      <c r="I12">
+        <v>0.01450853937809682</v>
+      </c>
+      <c r="J12">
+        <v>-0.07479137630712711</v>
+      </c>
+      <c r="K12">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L12">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F13">
+        <v>-0.09456910874226442</v>
+      </c>
+      <c r="G13">
+        <v>0.03936536534476791</v>
+      </c>
+      <c r="H13">
+        <v>-2.402342971137538</v>
+      </c>
+      <c r="I13">
+        <v>0.01629042696050953</v>
+      </c>
+      <c r="J13">
+        <v>-0.06326363969186927</v>
+      </c>
+      <c r="K13">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L13">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F14">
+        <v>0.07364174063534967</v>
+      </c>
+      <c r="G14">
+        <v>0.03201612546967592</v>
+      </c>
+      <c r="H14">
+        <v>2.300145303500246</v>
+      </c>
+      <c r="I14">
+        <v>0.02143998938332148</v>
+      </c>
+      <c r="J14">
+        <v>0.05284235079085438</v>
+      </c>
+      <c r="K14">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L14">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F15">
+        <v>0.08868423369483525</v>
+      </c>
+      <c r="G15">
+        <v>0.03887821231412756</v>
+      </c>
+      <c r="H15">
+        <v>2.28107797185441</v>
+      </c>
+      <c r="I15">
+        <v>0.02254383337674581</v>
+      </c>
+      <c r="J15">
+        <v>0.09314419490427697</v>
+      </c>
+      <c r="K15">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L15">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>c08_01</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F16">
+        <v>-0.09822009642230881</v>
+      </c>
+      <c r="G16">
+        <v>0.04869856685996267</v>
+      </c>
+      <c r="H16">
+        <v>-2.016899115424689</v>
+      </c>
+      <c r="I16">
+        <v>0.04370604241468268</v>
+      </c>
+      <c r="J16">
+        <v>-0.04539118595018144</v>
+      </c>
+      <c r="K16">
+        <v>0.8881339660009859</v>
+      </c>
+      <c r="L16">
+        <v>0.07278097061738029</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F17">
+        <v>-0.1121186467957616</v>
+      </c>
+      <c r="G17">
+        <v>0.01282626122602507</v>
+      </c>
+      <c r="H17">
+        <v>-8.741335048460405</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>-0.2469086677075182</v>
+      </c>
+      <c r="K17">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L17">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F18">
+        <v>-0.0161482832289124</v>
+      </c>
+      <c r="G18">
+        <v>0.001339955598303158</v>
+      </c>
+      <c r="H18">
+        <v>-12.0513569623961</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>-0.2702400020150258</v>
+      </c>
+      <c r="K18">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L18">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F19">
+        <v>-0.1135921530186554</v>
+      </c>
+      <c r="G19">
+        <v>0.01375511650354011</v>
+      </c>
+      <c r="H19">
+        <v>-8.258174548315935</v>
+      </c>
+      <c r="I19">
+        <v>2.220446049250313E-16</v>
+      </c>
+      <c r="J19">
+        <v>-0.2266168233693985</v>
+      </c>
+      <c r="K19">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L19">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F20">
+        <v>0.06272144087807204</v>
+      </c>
+      <c r="G20">
+        <v>0.009494179894618463</v>
+      </c>
+      <c r="H20">
+        <v>6.606304238412852</v>
+      </c>
+      <c r="I20">
+        <v>3.940336945618128E-11</v>
+      </c>
+      <c r="J20">
+        <v>0.1511201564465435</v>
+      </c>
+      <c r="K20">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L20">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F21">
+        <v>0.2073458945799331</v>
+      </c>
+      <c r="G21">
+        <v>0.03245746425963036</v>
+      </c>
+      <c r="H21">
+        <v>6.388234549728022</v>
+      </c>
+      <c r="I21">
+        <v>1.678117644843269E-10</v>
+      </c>
+      <c r="J21">
+        <v>0.3368066145795477</v>
+      </c>
+      <c r="K21">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L21">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F22">
+        <v>-0.06882783654143589</v>
+      </c>
+      <c r="G22">
+        <v>0.01168063058519406</v>
+      </c>
+      <c r="H22">
+        <v>-5.892476098737299</v>
+      </c>
+      <c r="I22">
+        <v>3.804511372607067E-09</v>
+      </c>
+      <c r="J22">
+        <v>-0.1443136439186082</v>
+      </c>
+      <c r="K22">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L22">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F23">
+        <v>0.3516111606970961</v>
+      </c>
+      <c r="G23">
+        <v>0.06715630468573711</v>
+      </c>
+      <c r="H23">
+        <v>5.235713345790638</v>
+      </c>
+      <c r="I23">
+        <v>1.643488587443898E-07</v>
+      </c>
+      <c r="J23">
+        <v>0.1941748991060651</v>
+      </c>
+      <c r="K23">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L23">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F24">
+        <v>0.2014538912035148</v>
+      </c>
+      <c r="G24">
+        <v>0.04575888481271848</v>
+      </c>
+      <c r="H24">
+        <v>4.402508759293924</v>
+      </c>
+      <c r="I24">
+        <v>1.070062683061757E-05</v>
+      </c>
+      <c r="J24">
+        <v>0.2238427987052801</v>
+      </c>
+      <c r="K24">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L24">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F25">
+        <v>0.02880629119564033</v>
+      </c>
+      <c r="G25">
+        <v>0.006621159814818695</v>
+      </c>
+      <c r="H25">
+        <v>4.350641277555256</v>
+      </c>
+      <c r="I25">
+        <v>1.357399636381373E-05</v>
+      </c>
+      <c r="J25">
+        <v>0.1256791625104676</v>
+      </c>
+      <c r="K25">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L25">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F26">
+        <v>-0.0532318873341005</v>
+      </c>
+      <c r="G26">
+        <v>0.01230246925524586</v>
+      </c>
+      <c r="H26">
+        <v>-4.326927076968881</v>
+      </c>
+      <c r="I26">
+        <v>1.512039927842324E-05</v>
+      </c>
+      <c r="J26">
+        <v>-0.1104664900231525</v>
+      </c>
+      <c r="K26">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L26">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F27">
+        <v>0.1099257292451376</v>
+      </c>
+      <c r="G27">
+        <v>0.02777113697514389</v>
+      </c>
+      <c r="H27">
+        <v>3.958272552669517</v>
+      </c>
+      <c r="I27">
+        <v>7.549378326188183E-05</v>
+      </c>
+      <c r="J27">
+        <v>0.1087964618141087</v>
+      </c>
+      <c r="K27">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L27">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F28">
+        <v>0.0216675059561843</v>
+      </c>
+      <c r="G28">
+        <v>0.006755672056026332</v>
+      </c>
+      <c r="H28">
+        <v>3.207305768617943</v>
+      </c>
+      <c r="I28">
+        <v>0.001339845028632825</v>
+      </c>
+      <c r="J28">
+        <v>0.1081034777706354</v>
+      </c>
+      <c r="K28">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L28">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F29">
+        <v>-0.002717667420742605</v>
+      </c>
+      <c r="G29">
+        <v>0.0008925292648377851</v>
+      </c>
+      <c r="H29">
+        <v>-3.044905671789411</v>
+      </c>
+      <c r="I29">
+        <v>0.002327532975651136</v>
+      </c>
+      <c r="J29">
+        <v>-0.08235484406627264</v>
+      </c>
+      <c r="K29">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L29">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F30">
+        <v>-0.003123244692235227</v>
+      </c>
+      <c r="G30">
+        <v>0.00107513532745966</v>
+      </c>
+      <c r="H30">
+        <v>-2.904978203641451</v>
+      </c>
+      <c r="I30">
+        <v>0.00367278675872984</v>
+      </c>
+      <c r="J30">
+        <v>-0.0849013232892521</v>
+      </c>
+      <c r="K30">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L30">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F31">
+        <v>0.08016668625152568</v>
+      </c>
+      <c r="G31">
+        <v>0.0284329861017485</v>
+      </c>
+      <c r="H31">
+        <v>2.819495847697678</v>
+      </c>
+      <c r="I31">
+        <v>0.004809915328834569</v>
+      </c>
+      <c r="J31">
+        <v>0.08849293603600875</v>
+      </c>
+      <c r="K31">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L31">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F32">
+        <v>0.07155881895006208</v>
+      </c>
+      <c r="G32">
+        <v>0.02980413619863619</v>
+      </c>
+      <c r="H32">
+        <v>2.400969398111144</v>
+      </c>
+      <c r="I32">
+        <v>0.01635170389379192</v>
+      </c>
+      <c r="J32">
+        <v>0.06879364006450217</v>
+      </c>
+      <c r="K32">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L32">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F33">
+        <v>-0.0964794413679229</v>
+      </c>
+      <c r="G33">
+        <v>0.04861047825476512</v>
+      </c>
+      <c r="H33">
+        <v>-1.984745775638719</v>
+      </c>
+      <c r="I33">
+        <v>0.04717276311847951</v>
+      </c>
+      <c r="J33">
+        <v>-0.04497800443578222</v>
+      </c>
+      <c r="K33">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L33">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>c08_02</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F34">
+        <v>-0.1055424745697366</v>
+      </c>
+      <c r="G34">
+        <v>0.05322504832748676</v>
+      </c>
+      <c r="H34">
+        <v>-1.982947463388808</v>
+      </c>
+      <c r="I34">
+        <v>0.04737329820030389</v>
+      </c>
+      <c r="J34">
+        <v>-0.05020072989135468</v>
+      </c>
+      <c r="K34">
+        <v>0.9128434768153588</v>
+      </c>
+      <c r="L34">
+        <v>0.06103021389295861</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F35">
+        <v>-0.1214388024239594</v>
+      </c>
+      <c r="G35">
+        <v>0.01290498481264853</v>
+      </c>
+      <c r="H35">
+        <v>-9.410224358027442</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>-0.2641838801899578</v>
+      </c>
+      <c r="K35">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L35">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>-0.07498906744740895</v>
+      </c>
+      <c r="G36">
+        <v>0.01160318814580271</v>
+      </c>
+      <c r="H36">
+        <v>-6.462798543393026</v>
+      </c>
+      <c r="I36">
+        <v>1.027840035305871E-10</v>
+      </c>
+      <c r="J36">
+        <v>-0.1558723954698906</v>
+      </c>
+      <c r="K36">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L36">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>0.03315497631611362</v>
+      </c>
+      <c r="G37">
+        <v>0.006220535392635336</v>
+      </c>
+      <c r="H37">
+        <v>5.329923265988763</v>
+      </c>
+      <c r="I37">
+        <v>9.825427182974522E-08</v>
+      </c>
+      <c r="J37">
+        <v>0.1320975447782507</v>
+      </c>
+      <c r="K37">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L37">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>-0.05791852964201193</v>
+      </c>
+      <c r="G38">
+        <v>0.01217138265412097</v>
+      </c>
+      <c r="H38">
+        <v>-4.758582593934137</v>
+      </c>
+      <c r="I38">
+        <v>1.949571174719722E-06</v>
+      </c>
+      <c r="J38">
+        <v>-0.1189040212547809</v>
+      </c>
+      <c r="K38">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L38">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>-0.003948370532529579</v>
+      </c>
+      <c r="G39">
+        <v>0.0009000014907562493</v>
+      </c>
+      <c r="H39">
+        <v>-4.387071102751018</v>
+      </c>
+      <c r="I39">
+        <v>1.14887241178252E-05</v>
+      </c>
+      <c r="J39">
+        <v>-0.1092649409415586</v>
+      </c>
+      <c r="K39">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L39">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>0.1283723253513604</v>
+      </c>
+      <c r="G40">
+        <v>0.02995986422030788</v>
+      </c>
+      <c r="H40">
+        <v>4.284809984697627</v>
+      </c>
+      <c r="I40">
+        <v>1.828954367755209E-05</v>
+      </c>
+      <c r="J40">
+        <v>0.126788296141213</v>
+      </c>
+      <c r="K40">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L40">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>-0.002875162776539409</v>
+      </c>
+      <c r="G41">
+        <v>0.0007572202476668717</v>
+      </c>
+      <c r="H41">
+        <v>-3.796996693364037</v>
+      </c>
+      <c r="I41">
+        <v>0.0001464597422535796</v>
+      </c>
+      <c r="J41">
+        <v>-0.1056381257635649</v>
+      </c>
+      <c r="K41">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L41">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>0.2766761625319508</v>
+      </c>
+      <c r="G42">
+        <v>0.09149854261195997</v>
+      </c>
+      <c r="H42">
+        <v>3.023831359864587</v>
+      </c>
+      <c r="I42">
+        <v>0.002495955274289141</v>
+      </c>
+      <c r="J42">
+        <v>0.2083897850065598</v>
+      </c>
+      <c r="K42">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L42">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>0.00996119792715678</v>
+      </c>
+      <c r="G43">
+        <v>0.004279256444869095</v>
+      </c>
+      <c r="H43">
+        <v>2.327787094671653</v>
+      </c>
+      <c r="I43">
+        <v>0.01992341168591305</v>
+      </c>
+      <c r="J43">
+        <v>0.06799366566611487</v>
+      </c>
+      <c r="K43">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L43">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>-0.04764452098631573</v>
+      </c>
+      <c r="G44">
+        <v>0.02053735423731193</v>
+      </c>
+      <c r="H44">
+        <v>-2.319895758517713</v>
+      </c>
+      <c r="I44">
+        <v>0.02034651708734048</v>
+      </c>
+      <c r="J44">
+        <v>-0.05603720093785922</v>
+      </c>
+      <c r="K44">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L44">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>0.01122727011813182</v>
+      </c>
+      <c r="G45">
+        <v>0.005012415143990087</v>
+      </c>
+      <c r="H45">
+        <v>2.239892306524805</v>
+      </c>
+      <c r="I45">
+        <v>0.02509791523286697</v>
+      </c>
+      <c r="J45">
+        <v>0.05939029904016626</v>
+      </c>
+      <c r="K45">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L45">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>0.003383459639402613</v>
+      </c>
+      <c r="G46">
+        <v>0.001677905848983403</v>
+      </c>
+      <c r="H46">
+        <v>2.016477647689563</v>
+      </c>
+      <c r="I46">
+        <v>0.04375005325096204</v>
+      </c>
+      <c r="J46">
+        <v>0.04884826767952881</v>
+      </c>
+      <c r="K46">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L46">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>c08_03</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>-0.09709810362756201</v>
+      </c>
+      <c r="G47">
+        <v>0.04883109486953929</v>
+      </c>
+      <c r="H47">
+        <v>-1.988448219049283</v>
+      </c>
+      <c r="I47">
+        <v>0.0467621404228642</v>
+      </c>
+      <c r="J47">
+        <v>-0.04487496611020287</v>
+      </c>
+      <c r="K47">
+        <v>0.9021920717667753</v>
+      </c>
+      <c r="L47">
+        <v>0.06374568330548173</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>-0.1137365571348305</v>
+      </c>
+      <c r="G48">
+        <v>0.01297048175679669</v>
+      </c>
+      <c r="H48">
+        <v>-8.768876844164337</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>-0.2509152643102726</v>
+      </c>
+      <c r="K48">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L48">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>-0.0167906393956828</v>
+      </c>
+      <c r="G49">
+        <v>0.001745104046811019</v>
+      </c>
+      <c r="H49">
+        <v>-9.621569227557409</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>-0.2505069420597805</v>
+      </c>
+      <c r="K49">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L49">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>0.3001325616319434</v>
+      </c>
+      <c r="G50">
+        <v>0.03689767771184194</v>
+      </c>
+      <c r="H50">
+        <v>8.134185678997863</v>
+      </c>
+      <c r="I50">
+        <v>4.440892098500626E-16</v>
+      </c>
+      <c r="J50">
+        <v>0.3175092382931503</v>
+      </c>
+      <c r="K50">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L50">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>-0.1080895306763081</v>
+      </c>
+      <c r="G51">
+        <v>0.01399155016247739</v>
+      </c>
+      <c r="H51">
+        <v>-7.725343469530854</v>
+      </c>
+      <c r="I51">
+        <v>1.110223024625157E-14</v>
+      </c>
+      <c r="J51">
+        <v>-0.2157072084240654</v>
+      </c>
+      <c r="K51">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L51">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>0.08624444289646779</v>
+      </c>
+      <c r="G52">
+        <v>0.01220197998122683</v>
+      </c>
+      <c r="H52">
+        <v>7.068069528810722</v>
+      </c>
+      <c r="I52">
+        <v>1.570965579844597E-12</v>
+      </c>
+      <c r="J52">
+        <v>0.1852536367699804</v>
+      </c>
+      <c r="K52">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L52">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>0.06740601174014804</v>
+      </c>
+      <c r="G53">
+        <v>0.009958135996014458</v>
+      </c>
+      <c r="H53">
+        <v>6.768938661525202</v>
+      </c>
+      <c r="I53">
+        <v>1.297295604274495E-11</v>
+      </c>
+      <c r="J53">
+        <v>0.1865349371918475</v>
+      </c>
+      <c r="K53">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L53">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>-0.008818353890051365</v>
+      </c>
+      <c r="G54">
+        <v>0.001412880573785254</v>
+      </c>
+      <c r="H54">
+        <v>-6.241400762150814</v>
+      </c>
+      <c r="I54">
+        <v>4.336695447193506E-10</v>
+      </c>
+      <c r="J54">
+        <v>-0.1694985497748205</v>
+      </c>
+      <c r="K54">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L54">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>-0.06943997679893536</v>
+      </c>
+      <c r="G55">
+        <v>0.01164828465034091</v>
+      </c>
+      <c r="H55">
+        <v>-5.961390787003396</v>
+      </c>
+      <c r="I55">
+        <v>2.501000517796115E-09</v>
+      </c>
+      <c r="J55">
+        <v>-0.1460617093385671</v>
+      </c>
+      <c r="K55">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L55">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>-0.007357001923793313</v>
+      </c>
+      <c r="G56">
+        <v>0.001762103801708983</v>
+      </c>
+      <c r="H56">
+        <v>-4.175124028821739</v>
+      </c>
+      <c r="I56">
+        <v>2.978237464179578E-05</v>
+      </c>
+      <c r="J56">
+        <v>-0.1161172258880665</v>
+      </c>
+      <c r="K56">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L56">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>0.04720332983080099</v>
+      </c>
+      <c r="G57">
+        <v>0.0114345790076926</v>
+      </c>
+      <c r="H57">
+        <v>4.128121358822657</v>
+      </c>
+      <c r="I57">
+        <v>3.657390824507445E-05</v>
+      </c>
+      <c r="J57">
+        <v>0.1267349838004317</v>
+      </c>
+      <c r="K57">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L57">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>0.1106243412765978</v>
+      </c>
+      <c r="G58">
+        <v>0.02767896606036079</v>
+      </c>
+      <c r="H58">
+        <v>3.996693410994986</v>
+      </c>
+      <c r="I58">
+        <v>6.423340398109545E-05</v>
+      </c>
+      <c r="J58">
+        <v>0.1094152778315717</v>
+      </c>
+      <c r="K58">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L58">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>-0.04979508086606399</v>
+      </c>
+      <c r="G59">
+        <v>0.01257309455539555</v>
+      </c>
+      <c r="H59">
+        <v>-3.960447497366129</v>
+      </c>
+      <c r="I59">
+        <v>7.48094401403776E-05</v>
+      </c>
+      <c r="J59">
+        <v>-0.1035954123842183</v>
+      </c>
+      <c r="K59">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L59">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>0.1320626710019047</v>
+      </c>
+      <c r="G60">
+        <v>0.03705678887508726</v>
+      </c>
+      <c r="H60">
+        <v>3.56379154834672</v>
+      </c>
+      <c r="I60">
+        <v>0.0003655362761267877</v>
+      </c>
+      <c r="J60">
+        <v>0.1560360982572352</v>
+      </c>
+      <c r="K60">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L60">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>0.1704446635215973</v>
+      </c>
+      <c r="G61">
+        <v>0.05133520538927536</v>
+      </c>
+      <c r="H61">
+        <v>3.320229503887513</v>
+      </c>
+      <c r="I61">
+        <v>0.0008994347381063861</v>
+      </c>
+      <c r="J61">
+        <v>0.1322992786216304</v>
+      </c>
+      <c r="K61">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L61">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>cy5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>m01_w01</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>0.03958826025490605</v>
+      </c>
+      <c r="G62">
+        <v>0.01211568957568986</v>
+      </c>
+      <c r="H62">
+        <v>3.26752018591991</v>
+      </c>
+      <c r="I62">
+        <v>0.001084941291348951</v>
+      </c>
+      <c r="J62">
+        <v>0.08995913879524223</v>
+      </c>
+      <c r="K62">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L62">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>cy2</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>0.1190635668341494</v>
+      </c>
+      <c r="G63">
+        <v>0.03859749702746431</v>
+      </c>
+      <c r="H63">
+        <v>3.084748390534986</v>
+      </c>
+      <c r="I63">
+        <v>0.002037244179212916</v>
+      </c>
+      <c r="J63">
+        <v>0.1314166288203419</v>
+      </c>
+      <c r="K63">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L63">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>cx7</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>0.0830359081487126</v>
+      </c>
+      <c r="G64">
+        <v>0.02856266425220002</v>
+      </c>
+      <c r="H64">
+        <v>2.907148556434711</v>
+      </c>
+      <c r="I64">
+        <v>0.003647399360072301</v>
+      </c>
+      <c r="J64">
+        <v>0.09179349736669233</v>
+      </c>
+      <c r="K64">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L64">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>0.07158608902299778</v>
+      </c>
+      <c r="G65">
+        <v>0.02975732637394084</v>
+      </c>
+      <c r="H65">
+        <v>2.40566266348738</v>
+      </c>
+      <c r="I65">
+        <v>0.01614316346613109</v>
+      </c>
+      <c r="J65">
+        <v>0.06866818711739589</v>
+      </c>
+      <c r="K65">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L65">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>cx5</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>cy4</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>-0.08558239495370523</v>
+      </c>
+      <c r="G66">
+        <v>0.03686334377544712</v>
+      </c>
+      <c r="H66">
+        <v>-2.32161237122248</v>
+      </c>
+      <c r="I66">
+        <v>0.02025381715511676</v>
+      </c>
+      <c r="J66">
+        <v>-0.07951148078982015</v>
+      </c>
+      <c r="K66">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L66">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>cy7</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>m0_edad_w01</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>-0.003786944641500163</v>
+      </c>
+      <c r="G67">
+        <v>0.00172801211845642</v>
+      </c>
+      <c r="H67">
+        <v>-2.191503520752461</v>
+      </c>
+      <c r="I67">
+        <v>0.02841537524073123</v>
+      </c>
+      <c r="J67">
+        <v>-0.07062033021967042</v>
+      </c>
+      <c r="K67">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L67">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>cx4</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>cy3</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>-0.08886040840237963</v>
+      </c>
+      <c r="G68">
+        <v>0.04067463872807082</v>
+      </c>
+      <c r="H68">
+        <v>-2.184663740874343</v>
+      </c>
+      <c r="I68">
+        <v>0.02891351061274183</v>
+      </c>
+      <c r="J68">
+        <v>-0.06680374858876272</v>
+      </c>
+      <c r="K68">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L68">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>c08_04</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>c18_12</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>cx3</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>~</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>m0_sexo_w01</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>-0.09596940247171103</v>
+      </c>
+      <c r="G69">
+        <v>0.04870260416614452</v>
+      </c>
+      <c r="H69">
+        <v>-1.97051890991948</v>
+      </c>
+      <c r="I69">
+        <v>0.048778929940964</v>
+      </c>
+      <c r="J69">
+        <v>-0.04488298486366084</v>
+      </c>
+      <c r="K69">
+        <v>0.9162281668455713</v>
+      </c>
+      <c r="L69">
+        <v>0.0708864408659251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L147"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13894,7 +17234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L127"/>
   <sheetViews>
@@ -20017,7 +23357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L123"/>
   <sheetViews>
